--- a/EE3204-EE3204E-Lab-GMohan-2014/Ex4/Report/DataSize.xlsx
+++ b/EE3204-EE3204E-Lab-GMohan-2014/Ex4/Report/DataSize.xlsx
@@ -19,17 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>data_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rate</t>
+    <t>DataSize(B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
+    <t>Avg-DR(KB/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg-T(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -37,6 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -52,11 +59,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
     </font>
     <font>
       <u/>
@@ -76,6 +78,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,16 +102,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -111,23 +119,26 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -174,11 +185,16 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$1:$A$10</c:f>
+              <c:f>工作表1!$A$2:$A$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
@@ -215,9 +231,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$B$1:$B$10</c:f>
+              <c:f>工作表1!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2257.020996</c:v>
@@ -262,37 +278,37 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124318408"/>
-        <c:axId val="2124321272"/>
+        <c:axId val="2125280600"/>
+        <c:axId val="2125283656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124318408"/>
+        <c:axId val="2125280600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124321272"/>
+        <c:crossAx val="2125283656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124321272"/>
+        <c:axId val="2125283656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124318408"/>
+        <c:crossAx val="2125280600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -345,9 +361,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$1:$A$10</c:f>
+              <c:f>工作表1!$A$2:$A$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
@@ -384,9 +400,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$C$1:$C$10</c:f>
+              <c:f>工作表1!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>22.757</c:v>
@@ -431,37 +447,37 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123912504"/>
-        <c:axId val="2124159816"/>
+        <c:axId val="2125403336"/>
+        <c:axId val="2125406328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123912504"/>
+        <c:axId val="2125403336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124159816"/>
+        <c:crossAx val="2125406328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124159816"/>
+        <c:axId val="2125406328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123912504"/>
+        <c:crossAx val="2125403336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -483,15 +499,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -512,16 +528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -865,287 +881,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B2" s="3">
         <v>2257.0209960000002</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C2" s="4">
         <v>22.757000000000001</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>200</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>8.5489999999999995</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>6994.1513670000004</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2">
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>200</v>
       </c>
-      <c r="B2">
-        <f>(F1+F2+F3)/3</f>
+      <c r="B3" s="2">
+        <f>(F2+F3+F4)/3</f>
         <v>6927.4527993333331</v>
       </c>
-      <c r="C2">
-        <f>(E1+E2+E3)/3</f>
+      <c r="C3" s="2">
+        <f>(E2+E3+E4)/3</f>
         <v>8.6319999999999997</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>8.7349999999999994</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>6845.220703</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>57973</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3">
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>300</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="3">
         <v>7036.3209999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="2">
         <v>8.5370000000000008</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>8.6120000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>6942.986328</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4">
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>400</v>
       </c>
-      <c r="B4">
-        <f>(F4+F5+F6)/3</f>
+      <c r="B5" s="2">
+        <f>(F5+F6+F7)/3</f>
         <v>12331.986328333334</v>
       </c>
-      <c r="C4">
-        <f>(E4+E5+E6)/3</f>
+      <c r="C5" s="2">
+        <f>(E5+E6+E7)/3</f>
         <v>4.8486666666666665</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>400</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>4.827</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>12387.196289</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>500</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="3">
         <v>12724.746999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="2">
         <v>4.7069999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>4.8520000000000003</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>12323.371094</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>600</v>
       </c>
-      <c r="B6">
-        <f>(F7+F8+F9)/3</f>
+      <c r="B7" s="2">
+        <f>(F8+F9+F10)/3</f>
         <v>16071.556966333335</v>
       </c>
-      <c r="C6">
-        <f>(E7+E8+E9)/3</f>
+      <c r="C7" s="2">
+        <f>(E8+E9+E10)/3</f>
         <v>3.7213333333333334</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>4.867</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>12285.391602</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>700</v>
       </c>
-      <c r="B7">
-        <f>(F10+F11+F12)/3</f>
+      <c r="B8" s="2">
+        <f>(F11+F12+F13)/3</f>
         <v>18562.397786333331</v>
       </c>
-      <c r="C7">
-        <f>(E10+E11+E12)/3</f>
+      <c r="C8" s="2">
+        <f>(E11+E12+E13)/3</f>
         <v>3.2449999999999997</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>600</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3.77</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>15860.211914</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>800</v>
       </c>
-      <c r="B8" s="1">
-        <f>(F13+F14+F15)/3</f>
+      <c r="B9" s="2">
+        <f>(F14+F15+F16)/3</f>
         <v>21073.070963333332</v>
       </c>
-      <c r="C8">
-        <f>(E13+E14+E16)/3</f>
+      <c r="C9" s="2">
+        <f>(E14+E15+E17)/3</f>
         <v>2.7263333333333333</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>3.754</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>15927.810546999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>900</v>
       </c>
-      <c r="B9" s="1">
-        <f>(F16+F17+F18)/3</f>
+      <c r="B10" s="2">
+        <f>(F17+F18+F19)/3</f>
         <v>22382.047525999998</v>
       </c>
-      <c r="C9">
-        <f>(E16+E17+E18)/3</f>
+      <c r="C10" s="2">
+        <f>(E17+E18+E19)/3</f>
         <v>2.6903333333333332</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>3.64</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>16426.648438</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>1000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="2">
         <v>24050.124</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="2">
         <v>2.5110000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>700</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>3.0939999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>19325.46875</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="E11">
+    <row r="12" spans="1:11">
+      <c r="E12">
         <v>2.996</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>19957.609375</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12">
+    <row r="13" spans="1:11">
+      <c r="E13">
         <v>3.645</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>16404.115234000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="D13">
+    <row r="14" spans="1:11">
+      <c r="D14">
         <v>800</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>2.9750000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>20098.488281000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="E14">
-        <v>2.798</v>
-      </c>
-      <c r="F14">
-        <v>21369.90625</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="E15">
+        <v>2.798</v>
+      </c>
+      <c r="F15">
+        <v>21369.90625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="E16">
         <v>2.7490000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>21750.818359000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="D16">
+    <row r="17" spans="4:6">
+      <c r="D17">
         <v>900</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>2.4060000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>24851.621093999998</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
-      <c r="E17">
+    <row r="18" spans="4:6">
+      <c r="E18">
         <v>2.7130000000000001</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>22039.439452999999</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
-      <c r="E18">
+    <row r="19" spans="4:6">
+      <c r="E19">
         <v>2.952</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>20255.082031000002</v>
       </c>
     </row>
